--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/DebitRegistration.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/DebitRegistration.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Case</t>
   </si>
@@ -152,9 +152,6 @@
     <t>02047901469503,01477900092601,01477900202701</t>
   </si>
   <si>
-    <t>mojizabidi98</t>
-  </si>
-  <si>
     <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL P where P.PARAMETER_NAME ='LOGIN_AND_T_PWRD_DESC_BEFORE_LOGIN'</t>
   </si>
   <si>
@@ -168,6 +165,21 @@
   </si>
   <si>
     <t>When I am verifying Debit Sign up process mojizabidi98</t>
+  </si>
+  <si>
+    <t>MOJIZABIDI98</t>
+  </si>
+  <si>
+    <t>OTP_Value</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>tran_pass_encrypted_value</t>
+  </si>
+  <si>
+    <t>$2a$31$33GicMJLAlIuV0UQKrwtNu/SYwpsYsVkGR4DDNJEN9iSUwWoZtETu</t>
   </si>
 </sst>
 </file>
@@ -504,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,29 +529,30 @@
     <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="170.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="177.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="91.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="115.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="103.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="76" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="72.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="70.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="113" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="73" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="170.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="177.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="91.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="115.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="103.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="75.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="76" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="72.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="70.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="113" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="73" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,69 +569,75 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>39</v>
@@ -630,71 +649,77 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H8:H12">
+  <conditionalFormatting sqref="I8:I12">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/DebitRegistration.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/DebitRegistration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Auto_180820\HBLAutomationAndroid\Resources\Feature\HBLMobile\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Auto_260820_MutualFund\HBLAutomationAndroid\Resources\Feature\HBLMobile\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Case</t>
   </si>
@@ -44,142 +44,187 @@
     <t>Login_id</t>
   </si>
   <si>
+    <t>account_tag1</t>
+  </si>
+  <si>
+    <t>success_message</t>
+  </si>
+  <si>
+    <t>account_query</t>
+  </si>
+  <si>
+    <t>select ACCOUNT_NO  from dc_customer_account k where K.CUSTOMER_INFO_ID= ( Select customer_info_id from dc_customer_info i where I.CNIC='{customer_cnic}') AND K.IS_ACCOUNT_LINK='1'</t>
+  </si>
+  <si>
+    <t>select TRANSACTION_PASSWORD from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>transaction_password_query</t>
+  </si>
+  <si>
+    <t>login_id_query</t>
+  </si>
+  <si>
+    <t>select CUSTOMER_NAME from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>IVR_check_query</t>
+  </si>
+  <si>
+    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL P where P.PARAMETER_NAME='IVR_REQUIRED'</t>
+  </si>
+  <si>
+    <t>select P.IS_IVR_ENABLED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>IVR_require_query</t>
+  </si>
+  <si>
+    <t>password_policy_query</t>
+  </si>
+  <si>
+    <t>created_on_query</t>
+  </si>
+  <si>
+    <t>updated_on_query</t>
+  </si>
+  <si>
+    <t>PARAM_CHANNEL_ID_query</t>
+  </si>
+  <si>
+    <t>ENABLE_PSD_require_query</t>
+  </si>
+  <si>
+    <t>ENABLE_PSD_check_query</t>
+  </si>
+  <si>
+    <t>Select P.PARAM_CHANNEL_ID from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL P where P.PARAMETER_NAME ='ENABLE_PSD_BIOMETRIC'</t>
+  </si>
+  <si>
+    <t>Select Z.ENABLE_PSD from dc_customer_info Z where Z.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>customer_type_query</t>
+  </si>
+  <si>
+    <t>select P.last_login from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>Last_login_query</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>select P.CUSTOMER_TYPE from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>account_tag_query</t>
+  </si>
+  <si>
+    <t>select ACCOUNT_NO  from dc_customer_account k where K.CUSTOMER_INFO_ID= ( Select customer_info_id from dc_customer_info i where I.CNIC='{customer_cnic}') AND K.IS_ACTIVE='1'</t>
+  </si>
+  <si>
+    <t>3640211897773</t>
+  </si>
+  <si>
+    <t>4028052000002718</t>
+  </si>
+  <si>
+    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL P where P.PARAMETER_NAME ='LOGIN_AND_T_PWRD_DESC_BEFORE_LOGIN'</t>
+  </si>
+  <si>
+    <t>You have successfully set-up your Login and Transaction Passwords. Kindly use your new password to login.</t>
+  </si>
+  <si>
+    <t>tran_pass</t>
+  </si>
+  <si>
+    <t>login_pass</t>
+  </si>
+  <si>
+    <t>When I am verifying Debit Sign up process mojizabidi98</t>
+  </si>
+  <si>
+    <t>MOJIZABIDI98</t>
+  </si>
+  <si>
+    <t>OTP_Value</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>tran_pass_encrypted_value</t>
+  </si>
+  <si>
+    <t>$2a$31$33GicMJLAlIuV0UQKrwtNu/SYwpsYsVkGR4DDNJEN9iSUwWoZtETu</t>
+  </si>
+  <si>
+    <t>02047901469503,01477900092601</t>
+  </si>
+  <si>
     <t>pakistan1</t>
   </si>
   <si>
     <t>pakistan2</t>
   </si>
   <si>
-    <t>account_tag1</t>
-  </si>
-  <si>
-    <t>success_message</t>
-  </si>
-  <si>
-    <t>account_query</t>
-  </si>
-  <si>
-    <t>select ACCOUNT_NO  from dc_customer_account k where K.CUSTOMER_INFO_ID= ( Select customer_info_id from dc_customer_info i where I.CNIC='{customer_cnic}') AND K.IS_ACCOUNT_LINK='1'</t>
-  </si>
-  <si>
-    <t>select TRANSACTION_PASSWORD from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
-  </si>
-  <si>
-    <t>transaction_password_query</t>
-  </si>
-  <si>
-    <t>login_id_query</t>
-  </si>
-  <si>
-    <t>select CUSTOMER_NAME from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
-  </si>
-  <si>
-    <t>IVR_check_query</t>
-  </si>
-  <si>
-    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL P where P.PARAMETER_NAME='IVR_REQUIRED'</t>
-  </si>
-  <si>
-    <t>select P.IS_IVR_ENABLED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
-  </si>
-  <si>
-    <t>IVR_require_query</t>
-  </si>
-  <si>
-    <t>password_policy_query</t>
-  </si>
-  <si>
-    <t>created_on_query</t>
-  </si>
-  <si>
-    <t>updated_on_query</t>
-  </si>
-  <si>
-    <t>PARAM_CHANNEL_ID_query</t>
-  </si>
-  <si>
-    <t>ENABLE_PSD_require_query</t>
-  </si>
-  <si>
-    <t>ENABLE_PSD_check_query</t>
-  </si>
-  <si>
-    <t>select P.created_on from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
-  </si>
-  <si>
-    <t>select P.updated_on from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
-  </si>
-  <si>
-    <t>Select P.PARAM_CHANNEL_ID from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
-  </si>
-  <si>
-    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL P where P.PARAMETER_NAME ='ENABLE_PSD_BIOMETRIC'</t>
-  </si>
-  <si>
-    <t>Select Z.ENABLE_PSD from dc_customer_info Z where Z.CNIC ='{customer_cnic}'</t>
-  </si>
-  <si>
-    <t>customer_type</t>
-  </si>
-  <si>
-    <t>customer_type_query</t>
-  </si>
-  <si>
-    <t>select P.last_login from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
-  </si>
-  <si>
-    <t>Last_login_query</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>select P.CUSTOMER_TYPE from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
-  </si>
-  <si>
-    <t>account_tag_query</t>
-  </si>
-  <si>
-    <t>select ACCOUNT_NO  from dc_customer_account k where K.CUSTOMER_INFO_ID= ( Select customer_info_id from dc_customer_info i where I.CNIC='{customer_cnic}') AND K.IS_ACTIVE='1'</t>
-  </si>
-  <si>
-    <t>3640211897773</t>
-  </si>
-  <si>
-    <t>4028052000002718</t>
-  </si>
-  <si>
-    <t>02047901469503,01477900092601,01477900202701</t>
-  </si>
-  <si>
-    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL P where P.PARAMETER_NAME ='LOGIN_AND_T_PWRD_DESC_BEFORE_LOGIN'</t>
-  </si>
-  <si>
-    <t>You have successfully set-up your Login and Transaction Passwords. Kindly use your new password to login.</t>
-  </si>
-  <si>
-    <t>tran_pass</t>
-  </si>
-  <si>
-    <t>login_pass</t>
-  </si>
-  <si>
-    <t>When I am verifying Debit Sign up process mojizabidi98</t>
-  </si>
-  <si>
-    <t>MOJIZABIDI98</t>
-  </si>
-  <si>
-    <t>OTP_Value</t>
-  </si>
-  <si>
-    <t>12345678</t>
-  </si>
-  <si>
-    <t>tran_pass_encrypted_value</t>
-  </si>
-  <si>
-    <t>$2a$31$33GicMJLAlIuV0UQKrwtNu/SYwpsYsVkGR4DDNJEN9iSUwWoZtETu</t>
+    <t>account_tag_query_not_linked</t>
+  </si>
+  <si>
+    <t>select ACCOUNT_NO  from dc_customer_account k where K.CUSTOMER_INFO_ID= ( Select customer_info_id from dc_customer_info i where I.CNIC='{customer_cnic}') AND K.IS_ACCOUNT_LINK='0'</t>
+  </si>
+  <si>
+    <t>Select P.PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL P where P.PARAMETER_NAME = 'USER_NAME_POLICY_DESCRIPTION'</t>
+  </si>
+  <si>
+    <t>login_id_policy_query</t>
+  </si>
+  <si>
+    <t>last_pass_change_query</t>
+  </si>
+  <si>
+    <t>select P.LAST_PASSWORD_CHANGED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>select P.LAST_TRANS_PASSWORD_CHANGED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>last_tran_pass_change_query</t>
+  </si>
+  <si>
+    <t>select P.CREATED_ON from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>select P.UPDATED_ON from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>is_password_change_required_value</t>
+  </si>
+  <si>
+    <t>is_password_reset_required_value</t>
+  </si>
+  <si>
+    <t>is_password_change_required_query</t>
+  </si>
+  <si>
+    <t>is_password_reset_required_query</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>SELECT P.IS_PASSWORD_CHANGED_REQUIRED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>SELECT P.IS_PASSWORD_RESET_REQUIRED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
   </si>
 </sst>
 </file>
@@ -516,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI1:AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,30 +574,37 @@
     <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="170.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="177.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="91.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="115.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="103.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="75.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="76" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="72.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="70.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="113" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="73" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="8" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="170.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="177.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="91.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="91.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="115.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="103.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="84.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="52.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="31.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="44.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="75.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="76" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="72.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="70.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="113" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="73" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,157 +621,199 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I8:I12">
+  <conditionalFormatting sqref="J8:J12">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/DebitRegistration.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/DebitRegistration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Auto_260820_MutualFund\HBLAutomationAndroid\Resources\Feature\HBLMobile\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_Final_100920\HBLAutomationAndroid\Resources\Feature\HBLMobile\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI1:AI2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/DebitRegistration.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/DebitRegistration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_Final_100920\HBLAutomationAndroid\Resources\Feature\HBLMobile\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Auto_Konnect_Initialization\HBLAutomationAndroid\Resources\Feature\HBLMobile\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,12 +149,6 @@
     <t>login_pass</t>
   </si>
   <si>
-    <t>When I am verifying Debit Sign up process mojizabidi98</t>
-  </si>
-  <si>
-    <t>MOJIZABIDI98</t>
-  </si>
-  <si>
     <t>OTP_Value</t>
   </si>
   <si>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>SELECT P.IS_PASSWORD_RESET_REQUIRED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>When I am verifying Debit Sign up process ALIABBAS98</t>
+  </si>
+  <si>
+    <t>ALIABBAS98</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -645,7 +645,7 @@
         <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>7</v>
@@ -660,28 +660,28 @@
         <v>20</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>11</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>34</v>
@@ -749,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>38</v>
@@ -758,34 +758,34 @@
         <v>13</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>10</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/DebitRegistration.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/DebitRegistration.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="115">
   <si>
     <t>Case</t>
   </si>
@@ -161,9 +161,6 @@
     <t>$2a$31$33GicMJLAlIuV0UQKrwtNu/SYwpsYsVkGR4DDNJEN9iSUwWoZtETu</t>
   </si>
   <si>
-    <t>02047901469503,01477900092601</t>
-  </si>
-  <si>
     <t>pakistan1</t>
   </si>
   <si>
@@ -221,17 +218,164 @@
     <t>SELECT P.IS_PASSWORD_RESET_REQUIRED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
-    <t>When I am verifying Debit Sign up process ALIABBAS98</t>
-  </si>
-  <si>
-    <t>ALIABBAS98</t>
+    <t>To verify error when user enter incorrect CNIC</t>
+  </si>
+  <si>
+    <t>MOJIZABIDI98</t>
+  </si>
+  <si>
+    <t>To verify error when user enter incorrect CNIC length 12</t>
+  </si>
+  <si>
+    <t>123456789111</t>
+  </si>
+  <si>
+    <t>To verify Empty CNIC field</t>
+  </si>
+  <si>
+    <t>To verify when user enter alphabets in CNIC field</t>
+  </si>
+  <si>
+    <t>ABCDEFGHIJK</t>
+  </si>
+  <si>
+    <t>To verify when user enter incorrect debit card number</t>
+  </si>
+  <si>
+    <t>1210118382897</t>
+  </si>
+  <si>
+    <t>1515157764813186</t>
+  </si>
+  <si>
+    <t>To verify when user enter incorrect debit card PIN</t>
+  </si>
+  <si>
+    <t>4028052000002445</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>To verify when user enter incorrect debit card number 14 length</t>
+  </si>
+  <si>
+    <t>40280520000024</t>
+  </si>
+  <si>
+    <t>To verify when user enter alphabets in debit card number field</t>
+  </si>
+  <si>
+    <t>ABCDEFGHIJKL</t>
+  </si>
+  <si>
+    <t>To verify Empty Debit card number field</t>
+  </si>
+  <si>
+    <t>To verify Empty Debit card PIN field</t>
+  </si>
+  <si>
+    <t>To verify  Debit card PIN field 2 length</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>To verify when user enter alphabets in debit card PIN field</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>To verify Empty Login ID field</t>
+  </si>
+  <si>
+    <t>To verify when user enter less than 8 characters in login ID field</t>
+  </si>
+  <si>
+    <t>AUTOMA</t>
+  </si>
+  <si>
+    <t>To verify when user enter all 8 alphabets with special characters in login ID field</t>
+  </si>
+  <si>
+    <t>AUTOMA@T</t>
+  </si>
+  <si>
+    <t>To verify when user enter all 8 numeric digits in login ID field</t>
+  </si>
+  <si>
+    <t>To verify Account linking screen press next without link any account</t>
+  </si>
+  <si>
+    <t>AUTOMATIONUSER</t>
+  </si>
+  <si>
+    <t>To verify create password screen when user enter invalid password</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>1111111112</t>
+  </si>
+  <si>
+    <t>To verify when customer is already registered</t>
+  </si>
+  <si>
+    <t>To verify if user account is blocked</t>
+  </si>
+  <si>
+    <t>4220187865675</t>
+  </si>
+  <si>
+    <t>4028052000002627</t>
+  </si>
+  <si>
+    <t>AUTOMATIONUSER3</t>
+  </si>
+  <si>
+    <t>22827200184803,07867901510801</t>
+  </si>
+  <si>
+    <t>To verify if customers email and mobile number is null</t>
+  </si>
+  <si>
+    <t>3320403541501</t>
+  </si>
+  <si>
+    <t>5366190021581919</t>
+  </si>
+  <si>
+    <t>AUTOMATIONUSER2</t>
+  </si>
+  <si>
+    <t>02047901469503,01477900202701</t>
+  </si>
+  <si>
+    <t>1234566791111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I am verifying Debit Sign up process </t>
+  </si>
+  <si>
+    <t>AUTOMATIONUSER1</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +388,26 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,29 +427,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -561,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,10 +767,11 @@
     <col min="32" max="32" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="113" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="73" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="1"/>
+    <col min="35" max="35" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>41</v>
@@ -645,7 +812,7 @@
         <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>7</v>
@@ -660,22 +827,22 @@
         <v>20</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>30</v>
@@ -707,10 +874,13 @@
       <c r="AH1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -722,10 +892,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>42</v>
@@ -734,13 +904,13 @@
         <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>34</v>
@@ -749,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>38</v>
@@ -758,28 +928,28 @@
         <v>13</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="S2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="U2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>29</v>
@@ -811,12 +981,2248 @@
       <c r="AH2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AI2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="3">
+        <v>13597901717701</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J8:J12">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>